--- a/biology/Botanique/Hydroleaceae/Hydroleaceae.xlsx
+++ b/biology/Botanique/Hydroleaceae/Hydroleaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Hydroléacées regroupe des plantes dicotylédones. Ce sont  des plantes herbacées voire arbustives des régions tropicales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Hydrolea, dérivé du grec ύδωρ / hydor, eau, et ελαιά / elaia, « olivier ; olive », en référence à l'habitat aqueux de la plante et à ses feuilles qui ressemblent à celles d'un olivier.
 </t>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[1] ce genre était situé dans la famille des Hydrophyllacées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) ce genre était situé dans la famille des Hydrophyllacées.
 En classification phylogénétique (la classification APG (1998), la classification APG II (2003), etc.), cette famille  ne comprend que 12 espèces du genre Hydrolea.
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (12 nov. 2015)[2], ITIS      (2 avril 2016)[3] et Angiosperm Phylogeny Website                        (8 Jul 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (12 nov. 2015), ITIS      (2 avril 2016) et Angiosperm Phylogeny Website                        (8 Jul 2010) :
 Hydrolea</t>
         </is>
       </c>
@@ -605,15 +623,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (12 nov. 2015)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (12 nov. 2015) :
 genre Hydrolea
 Hydrolea corymbosa
 Hydrolea ovata
 Hydrolea spinosa
 Hydrolea sp. Chase 3245
-Selon ITIS      (2 avril 2016)[3] :
+Selon ITIS      (2 avril 2016) :
 genre Hydrolea
 Hydrolea corymbosa J. Macbr. ex Elliott
 Hydrolea ovata Nutt. ex Choisy
